--- a/ValueSet-R5-endpoint-payload-type-for-R4.xlsx
+++ b/ValueSet-R5-endpoint-payload-type-for-R4.xlsx
@@ -62,19 +62,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
+    <t>Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>FHIR Infrastructure (http://www.hl7.org/Special/committees/fiwg)</t>
+    <t>Patient Administration (http://www.hl7.org/Special/committees/pafm)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
